--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -404,11 +404,10 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="3" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="15.55" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="4.9799999999999995" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="4.980625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -481,11 +480,10 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="3" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="8.27" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.41" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="8.270624999999999" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.4106250000000005" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -95,14 +95,21 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -411,47 +418,47 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="0" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0">
+      <x:c r="B1" s="1">
         <x:f>COUNT(PeopleData)</x:f>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="0">
+      <x:c r="B2" s="1">
         <x:f>PeopleCount</x:f>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="A4" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="s">
+      <x:c r="A5" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="1" t="n">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0" t="s">
+      <x:c r="A6" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="1" t="n">
         <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0" t="s">
+      <x:c r="A7" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="n">
+      <x:c r="B7" s="1" t="n">
         <x:v>29</x:v>
       </x:c>
     </x:row>
@@ -487,34 +494,34 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="0" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B1" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="B2" s="1" t="n">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="1" t="n">
         <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="A4" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="1" t="n">
         <x:v>29</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -95,21 +95,14 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -418,47 +411,47 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1">
+      <x:c r="B1" s="0">
         <x:f>COUNT(PeopleData)</x:f>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="1">
+      <x:c r="B2" s="0">
         <x:f>PeopleCount</x:f>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" s="1" t="s">
+      <x:c r="A4" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="A5" s="1" t="s">
+      <x:c r="A5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B5" s="1" t="n">
+      <x:c r="B5" s="0" t="n">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="A6" s="1" t="s">
+      <x:c r="A6" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B6" s="1" t="n">
+      <x:c r="B6" s="0" t="n">
         <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="A7" s="1" t="s">
+      <x:c r="A7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B7" s="1" t="n">
+      <x:c r="B7" s="0" t="n">
         <x:v>29</x:v>
       </x:c>
     </x:row>
@@ -494,34 +487,34 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+      <x:c r="B1" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="n">
+      <x:c r="B2" s="0" t="n">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="1" t="s">
+      <x:c r="A3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="n">
+      <x:c r="B3" s="0" t="n">
         <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" s="1" t="s">
+      <x:c r="A4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B4" s="1" t="n">
+      <x:c r="B4" s="0" t="n">
         <x:v>29</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -459,14 +459,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -522,14 +515,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -406,8 +406,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.550625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="4.980625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="4.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -475,8 +475,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.270624999999999" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.4106250000000005" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="6.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="5.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -406,8 +406,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.1090625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="4.1090625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="4.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -475,8 +475,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="6.1090625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="5.1090625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="6.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="5.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -406,8 +406,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.10125" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="4.10125" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="4.980625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -475,8 +475,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="6.10125" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="5.10125" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="8.270624999999999" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.4106250000000005" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
     <x:t>People Count:</x:t>
   </x:si>
   <x:si>
-    <x:t>COUNT(PeopleData)</x:t>
-  </x:si>
-  <x:si>
     <x:t>Total:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PeopleCount</x:t>
   </x:si>
   <x:si>
     <x:t>People Data:</x:t>
@@ -420,7 +414,7 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0">
         <x:f>PeopleCount</x:f>
@@ -428,12 +422,12 @@
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
         <x:v>30</x:v>
@@ -441,7 +435,7 @@
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
         <x:v>25</x:v>
@@ -449,7 +443,7 @@
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
         <x:v>29</x:v>
@@ -481,15 +475,15 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
         <x:v>30</x:v>
@@ -497,7 +491,7 @@
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
         <x:v>25</x:v>
@@ -505,7 +499,7 @@
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
         <x:v>29</x:v>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -53,7 +53,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -403,7 +403,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:B7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -472,7 +472,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:B4"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -407,8 +407,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.550625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="4.980625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.850625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -476,8 +476,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.270624999999999" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.4106250000000005" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="6.9106250000000005" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="5.080625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -97,12 +97,12 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -476,7 +476,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="6.9106250000000005" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="6.910625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="5.080625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
